--- a/数据库设计/需求分析/数据字典.xlsx
+++ b/数据库设计/需求分析/数据字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12360" windowHeight="9510" tabRatio="639" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12360" windowHeight="9510" tabRatio="639"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="232">
   <si>
     <t>用户数据字典</t>
   </si>
@@ -372,118 +372,438 @@
   </si>
   <si>
     <t>多少用户收藏这个主题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sc_sum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员设置主题是否合法；默认合法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yd_sum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用用户表的Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fbr_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表人编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题所属的版块；引用版块表的Type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>版块类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数区分精华主题和普通主题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dz_sum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>true表示置顶，false表示不置顶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用用户表的Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zjhfr_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近回复人标识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题的总回复数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf_sum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zjhf_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近回复时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fb_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题标识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储代码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题数据字典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf_content</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用主题表的主题标识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题标识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fb_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>与主题的回复数有关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lc_no</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hfr_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复人标识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储代码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复数据字典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>版块数据字典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：活动区；-1：问题区；-2：话题区；结合用户表的Rank区分每个版块的管理员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gg_content</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日主题数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jrzt_sum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日主题数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zrzt_sum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题总数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zt_sum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个版块主题总数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏数据字典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储代码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户标识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yh_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用用户表的Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题标识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注数据字典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝标识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fs_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶像标识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ox_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Int</t>
+    <t>Fb_sum</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Sc_sum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员设置主题是否合法；默认合法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合法性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yd_sum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用用户表的Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fbr_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表人编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题所属的版块；引用版块表的Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bk_type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>版块类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞数区分精华主题和普通主题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dz_sum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>true表示置顶，false表示不置顶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>置顶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用用户表的Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zjhfr_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近回复人标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题的总回复数</t>
+    <t>回复数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -491,375 +811,98 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>回复数</t>
+    <t>被关注数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
+    <t>Bgz_sum</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Zjhf_date</t>
+    <t>用户收藏多少个主题</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>最近回复时间</t>
+    <t>表示用户和管理员等区分普通用户和管理员；区分管理员负责的版块</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Fb_date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题数据字典</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合法性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hf_content</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用主题表的主题标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zt_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fb_date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>与主题的回复数有关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lc_no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼层编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hfr_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复人标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复数据字典</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>版块数据字典</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：活动区；-1：问题区；-2：话题区；结合用户表的Rank区分每个版块的管理员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gg_content</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日主题数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jrzt_sum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>昨日主题数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zrzt_sum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题总数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zt_sum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个版块主题总数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏数据字典</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yh_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用用户表的Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zt_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用主题表的Zt_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注数据字典</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉丝标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fs_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶像标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ox_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fb_sum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hf_sum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>被关注数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bgz_sum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户收藏多少个主题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示用户和管理员等区分普通用户和管理员；区分管理员负责的版块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oard_type</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theme_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heme_id</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_type</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用主题表Theme_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -927,49 +970,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1249,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1261,13 +1307,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1391,10 +1437,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1405,10 +1451,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1436,10 +1482,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -1462,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1479,14 +1525,14 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1503,13 +1549,13 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1562,7 +1608,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -1578,13 +1624,13 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1646,7 +1692,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -1662,13 +1708,13 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1758,7 +1804,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -1767,266 +1813,266 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="37.375" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="14.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="37.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>161</v>
       </c>
+      <c r="D2" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="7">
+      <c r="B3" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="5">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>157</v>
+      <c r="E3" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="7">
+      <c r="C7" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>8</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>138</v>
+      <c r="E9" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="7">
+      <c r="C10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>134</v>
+      <c r="E10" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>8</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>131</v>
+      <c r="E11" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>8</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>8</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2034,7 +2080,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2045,152 +2091,152 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="31.5" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="11.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="31.5" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>184</v>
       </c>
+      <c r="C2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="E3" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D7" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="5">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="7">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="7">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="7">
+      <c r="B9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2198,7 +2244,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2208,126 +2254,126 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="40.75" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="11.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="40.75" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="D3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="11" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D7" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="7">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2338,82 +2384,82 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="18.375" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="18.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B4" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="5">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>217</v>
+      <c r="E4" s="13" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2428,77 +2474,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="17.375" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="5">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>138</v>
+      <c r="E4" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2514,13 +2560,13 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2707,7 +2753,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -2723,13 +2769,13 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2816,7 +2862,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -2832,13 +2878,13 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2861,7 +2907,7 @@
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2869,7 +2915,7 @@
       <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -2886,7 +2932,7 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="E3:E4"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/数据库设计/需求分析/数据字典.xlsx
+++ b/数据库设计/需求分析/数据字典.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="206">
   <si>
     <t xml:space="preserve">用户数据字典</t>
   </si>
@@ -223,7 +223,25 @@
     <t xml:space="preserve">Zjhfr_id</t>
   </si>
   <si>
-    <t xml:space="preserve">引用用户表的Id</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">引用用户表的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Id</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">置顶</t>
@@ -235,7 +253,44 @@
     <t xml:space="preserve">Boolean</t>
   </si>
   <si>
-    <t xml:space="preserve">true表示置顶，false表示不置顶</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">表示置顶，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">表示不置顶</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">点赞数</t>
@@ -253,7 +308,25 @@
     <t xml:space="preserve">Board_type</t>
   </si>
   <si>
-    <t xml:space="preserve">主题所属的版块；引用版块表的Type</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">主题所属的版块；引用版块表的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Type</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">发表人编号</t>
@@ -280,6 +353,33 @@
     <t xml:space="preserve">多少用户收藏这个主题</t>
   </si>
   <si>
+    <t xml:space="preserve">学院类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College_type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">引用学院表的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Id</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">回复数据字典</t>
   </si>
   <si>
@@ -310,7 +410,82 @@
     <t xml:space="preserve">版块数据字典</t>
   </si>
   <si>
-    <t xml:space="preserve">0：活动区；-1：问题区；-2：话题区；结合用户表的Rank区分每个版块的管理员</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">：活动区；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">：问题区；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">：话题区；结合用户表的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">区分每个版块的管理员</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">公告</t>
@@ -349,7 +524,25 @@
     <t xml:space="preserve">Yh_id</t>
   </si>
   <si>
-    <t xml:space="preserve">引用主题表Theme_id</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">引用主题表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Theme_id</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">关注数据字典</t>
@@ -367,16 +560,70 @@
     <t xml:space="preserve">Ox_id</t>
   </si>
   <si>
-    <t xml:space="preserve">发布课程数据字典（Submit_Les)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">课程id</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">发布课程数据字典（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Submit_Les)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">课程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Les_Id  (Primary Key)</t>
   </si>
   <si>
-    <t xml:space="preserve">用户id</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Person_Id</t>
@@ -385,7 +632,25 @@
     <t xml:space="preserve">Foreign Key</t>
   </si>
   <si>
-    <t xml:space="preserve">课程标签id</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">课程标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Label_Id</t>
@@ -397,7 +662,25 @@
     <t xml:space="preserve">Label_Kind</t>
   </si>
   <si>
-    <t xml:space="preserve">(1,2,3)分别代表理论，项目，技能</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1,2,3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">分别代表理论，项目，技能</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">具体名称</t>
@@ -475,7 +758,63 @@
     <t xml:space="preserve">Les_Status</t>
   </si>
   <si>
-    <t xml:space="preserve">1代表正在进行，2代表招收中，3代表已结课</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">代表正在进行，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">代表招收中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">代表已结课</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ChoiceLes_Field</t>
@@ -484,7 +823,25 @@
     <t xml:space="preserve">Les_Id</t>
   </si>
   <si>
-    <t xml:space="preserve">用户Id</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Id</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">订课者</t>
@@ -517,10 +874,46 @@
     <t xml:space="preserve">星级数</t>
   </si>
   <si>
-    <t xml:space="preserve">评论数据字典(Comment_Field)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">评论id</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">评论数据字典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(Comment_Field)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">评论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Comment_Id</t>
@@ -550,7 +943,25 @@
     <t xml:space="preserve">Comment </t>
   </si>
   <si>
-    <t xml:space="preserve">回复数据字典(Answer_Field)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">回复数据字典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(Answer_Field)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Comment_id </t>
@@ -562,7 +973,25 @@
     <t xml:space="preserve">Answer</t>
   </si>
   <si>
-    <t xml:space="preserve">标签数据字典(Label_Field)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">标签数据字典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(Label_Field)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">课程标签</t>
@@ -574,7 +1003,54 @@
     <t xml:space="preserve">类别</t>
   </si>
   <si>
-    <t xml:space="preserve">1，2，3</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">名字</t>
@@ -583,10 +1059,46 @@
     <t xml:space="preserve">Label_Name</t>
   </si>
   <si>
-    <t xml:space="preserve">学院数据字典(College_Field)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学院id</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">学院数据字典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(College_Field)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">College_Id</t>
@@ -607,7 +1119,25 @@
     <t xml:space="preserve">Community_field</t>
   </si>
   <si>
-    <t xml:space="preserve">社团id</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">社团</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Com_Id</t>
@@ -650,7 +1180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -672,6 +1202,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -727,7 +1263,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -736,12 +1272,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -752,15 +1296,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -768,12 +1312,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -788,7 +1336,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="常规 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -800,18 +1348,18 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,10 +1375,10 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="n">
@@ -841,7 +1389,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -853,12 +1401,12 @@
       <c r="D3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -870,12 +1418,12 @@
       <c r="D4" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -887,12 +1435,12 @@
       <c r="D5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -901,9 +1449,10 @@
       <c r="C6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -917,7 +1466,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -931,7 +1480,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -940,9 +1489,10 @@
       <c r="C9" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="D9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -956,7 +1506,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -970,7 +1520,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -982,12 +1532,12 @@
       <c r="D12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -1001,7 +1551,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -1013,12 +1563,12 @@
       <c r="D14" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -1030,7 +1580,7 @@
       <c r="D15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1061,12 +1611,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1092,17 +1642,17 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>116</v>
+        <v>176</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
@@ -1111,7 +1661,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1142,12 +1692,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1172,33 +1722,33 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>177</v>
+      <c r="A3" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>179</v>
+      <c r="A4" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>181</v>
+      <c r="A5" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1223,17 +1773,17 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1258,25 +1808,25 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>184</v>
+      <c r="A3" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>186</v>
+      <c r="A4" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
@@ -1286,11 +1836,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>188</v>
+      <c r="A5" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>16</v>
@@ -1323,17 +1873,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -1353,70 +1903,70 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>191</v>
+      <c r="A3" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>193</v>
+      <c r="A4" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>195</v>
+      <c r="A5" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>197</v>
+      <c r="A6" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>200</v>
+      <c r="A7" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>202</v>
+      <c r="E7" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1438,30 +1988,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:16"/>
+  <dimension ref="1:17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="38.5162790697674"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="4" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="6" width="9.21052631578947"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
@@ -2483,19 +3033,19 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F2" s="0"/>
@@ -3519,19 +4069,19 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="0"/>
@@ -4555,16 +5105,16 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="0"/>
@@ -5589,16 +6139,16 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="0"/>
@@ -6623,16 +7173,16 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="7" t="n">
         <v>10</v>
       </c>
       <c r="E6" s="0"/>
@@ -7656,169 +8206,186 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="7" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="7" t="n">
         <v>8</v>
       </c>
       <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="10" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7848,22 +8415,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="11.693023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="32.3674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="4" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="6" width="9.21052631578947"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
@@ -8885,19 +9452,19 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F2" s="0"/>
@@ -9921,19 +10488,19 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F3" s="0"/>
@@ -10956,99 +11523,99 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    <row r="4" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>87</v>
+      <c r="E4" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="7" t="n">
         <v>10</v>
       </c>
       <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>88</v>
+      <c r="E6" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="7" t="n">
         <v>8</v>
       </c>
       <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -11079,117 +11646,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="41.9627906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="4" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="6" width="9.21052631578947"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>92</v>
+      <c r="E3" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="7" t="n">
         <v>8</v>
       </c>
       <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="7" t="n">
         <v>8</v>
       </c>
       <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>101</v>
+      <c r="E7" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -11219,70 +11786,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="4" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="4" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="6" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="6" width="9.21052631578947"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>105</v>
+      <c r="E4" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -11312,69 +11879,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="4" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="17.8418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="4" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="6" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="6" width="9.21052631578947"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -11405,12 +11972,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11435,109 +12002,109 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>112</v>
+      <c r="A3" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>114</v>
+      <c r="A4" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>116</v>
+      <c r="E4" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>118</v>
+      <c r="A5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>116</v>
+      <c r="E5" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>120</v>
+      <c r="A6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>123</v>
+      <c r="A7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>125</v>
+      <c r="A8" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>128</v>
+      <c r="A9" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
@@ -11547,77 +12114,77 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>132</v>
+      <c r="A11" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>134</v>
+      <c r="A12" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>136</v>
+      <c r="A13" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>138</v>
+      <c r="A14" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>140</v>
+      <c r="A15" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>142</v>
+      <c r="A16" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>145</v>
+      <c r="A17" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -11647,17 +12214,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -11677,67 +12244,67 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>112</v>
+      <c r="A3" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>150</v>
+      <c r="A4" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>151</v>
+      <c r="E4" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>152</v>
+      <c r="A5" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>154</v>
+      <c r="A6" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>158</v>
+      <c r="A7" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>160</v>
+      <c r="E7" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -11767,12 +12334,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11797,67 +12364,67 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>162</v>
+      <c r="A3" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>112</v>
+      <c r="A4" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>114</v>
+      <c r="A5" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>169</v>
+        <v>119</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>170</v>
+      <c r="A7" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
